--- a/Invoice Processing Automation.xlsx
+++ b/Invoice Processing Automation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd75f606a3ab743/Documents/UiPath/Invoice Processing Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{11FDA1CE-54C9-4992-81FC-CA52FC0EF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{476A2011-BD4F-4E4D-9986-C122DCAB444A}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{11FDA1CE-54C9-4992-81FC-CA52FC0EF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37B1D4B3-B4CB-4787-9707-91A1B4949EF1}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3624" windowWidth="17280" windowHeight="8880" xr2:uid="{91FB431B-D6A2-4ED9-BB3B-7EFE62C13667}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{91FB431B-D6A2-4ED9-BB3B-7EFE62C13667}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>407-6853840-0285912</t>
   </si>
@@ -160,6 +160,212 @@
 io and Volcs Assistar(Acive Black) | BITDVIE IG 2_x000D_
 BITTXVLENG)_x000D_
 HSM.ep17ezan</t>
+  </si>
+  <si>
+    <t>407-6853340-0285912</t>
+  </si>
+  <si>
+    <t>13.05.2023</t>
+  </si>
+  <si>
+    <t>Bout Autlio FXCharge Wireless in Ear Bluatoath Neckhand_x000D_
+with ENG Mic, 32H Playlime, Type-G Fast Charging_x000D_
+(2ine=7 6Hrs Playtime), Dua Paring, Made in Inia,_x000D_
+biggest 13.2mm Divers Ear Phanes (Black) | BDBIFEGOPS_x000D_
+( BbarFeGaPS)_x000D_
+us:es13000_x000D_
+Shipping Charges.</t>
+  </si>
+  <si>
+    <t>[FREXCEZ Saft Silicone Compatible for Airpods Fro Full Fra_x000D_
+[shockproof Gover Set -Bisck | BOSH?ZSTVAC ( po-blk cot)_x000D_
+lHn:a208_x000D_
+[ebippiog Charges_x000D_
+TAL:_x000D_
+Jount In Words:</t>
+  </si>
+  <si>
+    <t>402-0468003-6848313</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy MD4 Dark Bie, 4GB RAM, 84GB_x000D_
+otsge | Unio 5B RAMI with RAN Flu [ MedTaTeh_x000D_
+Hel £35 5000 man Baty | B0GMGECHS { (C6355,_x000D_
+SPL MDS 4703 Shadow Blut}_x000D_
+snes 171200_x000D_
+IN yo</t>
+  </si>
+  <si>
+    <t>407-1541312-6369911</t>
+  </si>
+  <si>
+    <t>03.02.2023</t>
+  </si>
+  <si>
+    <t>AGARQ Grand Egg Boiler and Poacher.2-in1 Boils &amp;_x000D_
+E305. Posch 4 Eggs, Steamed Vegetables, 2 Boling_x000D_
+oes, Stainless Steel Body, Transparent Lid, 500 {1,01_x000D_
+Wats, Sier | BOB257ZYVE { BUBZSTZYVE )_x000D_
+usn:ésteraan_x000D_
+IR Tan</t>
+  </si>
+  <si>
+    <t>407-3312082-5537110</t>
+  </si>
+  <si>
+    <t>Bout Autlio Airbass Frapods X Blastaath Truly_x000D_
+Wireless in Ear Earbuds with Mic, 22H Pisylims, Fast_x000D_
+Charging Type.C. 126 Water Resistant Touch |_x000D_
+Controls and Voice Assistant (Black) [ B0aNDasaxM (| 135_x000D_
+coaNDBa0H )_x000D_
+usnesizo2a</t>
+  </si>
+  <si>
+    <t>ICEDO Redmi A / Bi 4 0A Sport Back Cover [ Matte Saft Sillc_x000D_
+Flexi | Gamera Bump Protection [AD Side Shook Proof Ru_x000D_
+Back Gass Cover for Xisomi Redmi 94.193 / 6A Sport (Blue)_x000D_
+B08KAGLRAY { candyXiomRedmiaABiae )_x000D_
+isn:2uzs0000</t>
+  </si>
+  <si>
+    <t>407-9358710-5100343</t>
+  </si>
+  <si>
+    <t>PHILIPS BT1222/15 Skin-friendly Beard Trimmer - DuraPaw,_x000D_
+Technology. Cantless Rechargeable wih USB Charging, Ch_x000D_
+Inator, Travel lock, No OF Nested, Blue | BOSSRNOVEY_x000D_
+Boasrnovey)_x000D_
+usn:2s101000</t>
+  </si>
+  <si>
+    <t>407-8377733-8845134</t>
+  </si>
+  <si>
+    <t>[4mozo Ultra Stim Saft Silicone Flexible Camera Pratection B_x000D_
+[Gover for iPhone 1212 Pro Blas) | BOSSNTZNSQ ( nets_x000D_
+b_x000D_
+[Hs-20260000_x000D_
+TAL:</t>
+  </si>
+  <si>
+    <t>407-2395263-9493923</t>
+  </si>
+  <si>
+    <t>03.04.2022</t>
+  </si>
+  <si>
+    <t>XTRIM Macho X Unisex Leather Gym Gloves | far Professior_x000D_
+Weighting, Fitness Training and Workout with Half Finger_x000D_
+West Wrap for Proction ana Tastes! Thumb (Blok. XL) {_x000D_
+BBY 48S NL ( EF-XT-GG XMACHG- XL)_x000D_
+sao_x000D_
+TAL:</t>
+  </si>
+  <si>
+    <t>407-5388533-3830766</t>
+  </si>
+  <si>
+    <t>01.41.2021</t>
+  </si>
+  <si>
+    <t>boat Rockerz 246v2 Wireless Blustoath V5.0, 8 Haurs_x000D_
+PLayhck Time, I°X5 Sweat and Water Resistance, in But_x000D_
+ic and Voice AssistantiActie Black) | BOTTXVLBIG (|_x000D_
+BorTXvLe1G_x000D_
+uses ize2a0</t>
+  </si>
+  <si>
+    <t>407-6853840-0285312</t>
+  </si>
+  <si>
+    <t>[Bout Auic FXCharge Wireless in Ear Bluewath Neckband_x000D_
+tn ENG Mic, 32H Playtime, Type-G Fast Charging_x000D_
+(Mine=7 5s Playtime), Dual Paiing, Mad in india,_x000D_
+Biogest 14 2mm Drvers Ear Phones (Sack) BIE TFAGQPS]_x000D_
+(EDaTFecOPS )_x000D_
+isneste3000_x000D_
+|Shipping Charges</t>
+  </si>
+  <si>
+    <t>[FREXCEZ Soft Silicone Compatible for Airpods Pro Full Prof_x000D_
+hockpraof Cavar Sat Black | BOBHTZATVIC{ po-biot)_x000D_
+fHshisz08_x000D_
+lspipping Charges:_x000D_
+TAL:_x000D_
+Count Tn Words:</t>
+  </si>
+  <si>
+    <t>402-0468003-68348313</t>
+  </si>
+  <si>
+    <t>[Samsung Galaxy MD4 Dark Bluz, 4GB RAM, 84GB_x000D_
+Stersge | Upto 5G RAN wih RAM Plus | MedaTek|_x000D_
+Heo P35 | 5000 mah Batery [BOBMGEICHR ( (16,355:_x000D_
+ISTPL MD4 4164 Shadow Bue J_x000D_
+snestzia00</t>
+  </si>
+  <si>
+    <t>407-1541312-6369311</t>
+  </si>
+  <si>
+    <t>GAR Grand Egg Baler and Poacher.2+n1 Balls 8_x000D_
+ags. Passi 4 Eggs, Steamed Vegetables, 3 Boling_x000D_
+odes, Stainess Steet Body. Transparent id, 500 [101_x000D_
+ate, Siver | BOB25T2YVE {BOB2BTZVVE )_x000D_
+sn ésteraaD</t>
+  </si>
+  <si>
+    <t>407-8812082-5537 110</t>
+  </si>
+  <si>
+    <t>[Bout Auic Airhass Propods X Blustaoth Truly_x000D_
+frslss i Er Ears wih Mic, 22H Playtime, Fast_x000D_
+(Charaing Type, lows Water Resistant Touch Lo_x000D_
+(Contos and Veioe Assistant (1c) | Bvanbagaxse {135_x000D_
+lSDenDBaOXM )_x000D_
+isnest7a2aD</t>
+  </si>
+  <si>
+    <t>[CEDO Ream 64.1 i DA Sport Back Gaver | Matte Sait Silc_x000D_
+Flexi | Gamera Bump Protecion [ A Side Shock Proaf Ru_x000D_
+[20k Casa Cover for som Redim 84 £3 £ GA Spart (Bus)_x000D_
+[BDEKAGL RAY {candyomRadmoaBive |_x000D_
+isn a0zen000</t>
+  </si>
+  <si>
+    <t>407-9858710-5100343</t>
+  </si>
+  <si>
+    <t>[PHILIPS BT1222/15 Skin-friendly Beard Trimmer - DuraPaw_x000D_
+chology, Confess Rechargeable with USB Charging, i_x000D_
+ofictor Travel lock, No Gil Needed, Biss [ BOGRNBVEY (_x000D_
+BboeRNaveY)_x000D_
+isnest01000</t>
+  </si>
+  <si>
+    <t>1020 Ultra Sten Soft Silicone Flexible Camera Proteotian B_x000D_
+[Cover or Phone 12112 Peo (Blue) | BOSBN1ZNS { Enetpus_x000D_
+b_x000D_
+JHen-20ze0000_x000D_
+TAL</t>
+  </si>
+  <si>
+    <t>CTRIM Macha X Unisex Leather Gym Glaves | for Prafessior_x000D_
+eighling, Fitness Tealing and Workout | wih Hal-Finger_x000D_
+ist Wrap fr Protectan and Tactical Thum (Back, XL)_x000D_
+[BDEYABSLNL (EFXT-GG KMACHO-KL)_x000D_
+lrsnasoe_x000D_
+TAL:</t>
+  </si>
+  <si>
+    <t>407-5388583-3830766</t>
+  </si>
+  <si>
+    <t>[boat Rackerz 245v2 Wireless Bluetooth V5.0, 8 Hours._x000D_
+Playback Time, IPX5 Sweat and Water Resistance, in But_x000D_
+mica Voice AssistaniActive Black) | BOTTKVLBIG (_x000D_
+BorvE1o)_x000D_
+snesta2a0</t>
   </si>
 </sst>
 </file>
@@ -518,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AB12B5-AAB9-4E8C-87F9-549977327B0F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -642,6 +848,248 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>25032023</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
